--- a/natmiOut/YoungD4/LR-pairs_lrc2p/F13a1-Itga9.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/F13a1-Itga9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Itga9</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>139.302119615405</v>
+        <v>0.4914656666666666</v>
       </c>
       <c r="H2">
-        <v>139.302119615405</v>
+        <v>1.474397</v>
       </c>
       <c r="I2">
-        <v>0.4575715551908895</v>
+        <v>0.001412343595284977</v>
       </c>
       <c r="J2">
-        <v>0.4575715551908895</v>
+        <v>0.001412343595284977</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.07031825285759</v>
+        <v>4.076492666666667</v>
       </c>
       <c r="N2">
-        <v>4.07031825285759</v>
+        <v>12.229478</v>
       </c>
       <c r="O2">
-        <v>0.3165067846233175</v>
+        <v>0.2605544836075472</v>
       </c>
       <c r="P2">
-        <v>0.3165067846233175</v>
+        <v>0.2605544836075472</v>
       </c>
       <c r="Q2">
-        <v>567.0039601323343</v>
+        <v>2.003456186085111</v>
       </c>
       <c r="R2">
-        <v>567.0039601323343</v>
+        <v>18.031105674766</v>
       </c>
       <c r="S2">
-        <v>0.1448245016685593</v>
+        <v>0.0003679924561459037</v>
       </c>
       <c r="T2">
-        <v>0.1448245016685593</v>
+        <v>0.0003679924561459039</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>139.302119615405</v>
+        <v>0.4914656666666666</v>
       </c>
       <c r="H3">
-        <v>139.302119615405</v>
+        <v>1.474397</v>
       </c>
       <c r="I3">
-        <v>0.4575715551908895</v>
+        <v>0.001412343595284977</v>
       </c>
       <c r="J3">
-        <v>0.4575715551908895</v>
+        <v>0.001412343595284977</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.94445941404811</v>
+        <v>4.088530666666666</v>
       </c>
       <c r="N3">
-        <v>3.94445941404811</v>
+        <v>12.265592</v>
       </c>
       <c r="O3">
-        <v>0.306720037270074</v>
+        <v>0.2613239084857801</v>
       </c>
       <c r="P3">
-        <v>0.306720037270074</v>
+        <v>0.2613239084857802</v>
       </c>
       <c r="Q3">
-        <v>549.4715571138402</v>
+        <v>2.009372449780444</v>
       </c>
       <c r="R3">
-        <v>549.4715571138402</v>
+        <v>18.084352048024</v>
       </c>
       <c r="S3">
-        <v>0.1403463644618754</v>
+        <v>0.000369079148444729</v>
       </c>
       <c r="T3">
-        <v>0.1403463644618754</v>
+        <v>0.0003690791484447291</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>139.302119615405</v>
+        <v>0.4914656666666666</v>
       </c>
       <c r="H4">
-        <v>139.302119615405</v>
+        <v>1.474397</v>
       </c>
       <c r="I4">
-        <v>0.4575715551908895</v>
+        <v>0.001412343595284977</v>
       </c>
       <c r="J4">
-        <v>0.4575715551908895</v>
+        <v>0.001412343595284977</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.72766228172475</v>
+        <v>2.889419666666666</v>
       </c>
       <c r="N4">
-        <v>2.72766228172475</v>
+        <v>8.668258999999999</v>
       </c>
       <c r="O4">
-        <v>0.21210223984842</v>
+        <v>0.1846811243719048</v>
       </c>
       <c r="P4">
-        <v>0.21210223984842</v>
+        <v>0.1846811243719048</v>
       </c>
       <c r="Q4">
-        <v>379.9691374392496</v>
+        <v>1.420050562758111</v>
       </c>
       <c r="R4">
-        <v>379.9691374392496</v>
+        <v>12.780455064823</v>
       </c>
       <c r="S4">
-        <v>0.09705195174691258</v>
+        <v>0.000260833203176688</v>
       </c>
       <c r="T4">
-        <v>0.09705195174691258</v>
+        <v>0.000260833203176688</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>139.302119615405</v>
+        <v>0.4914656666666666</v>
       </c>
       <c r="H5">
-        <v>139.302119615405</v>
+        <v>1.474397</v>
       </c>
       <c r="I5">
-        <v>0.4575715551908895</v>
+        <v>0.001412343595284977</v>
       </c>
       <c r="J5">
-        <v>0.4575715551908895</v>
+        <v>0.001412343595284977</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.98324877587097</v>
+        <v>4.443527333333333</v>
       </c>
       <c r="N5">
-        <v>1.98324877587097</v>
+        <v>13.330582</v>
       </c>
       <c r="O5">
-        <v>0.1542168582808882</v>
+        <v>0.2840139954622808</v>
       </c>
       <c r="P5">
-        <v>0.1542168582808882</v>
+        <v>0.2840139954622809</v>
       </c>
       <c r="Q5">
-        <v>276.2707582034834</v>
+        <v>2.183841123228222</v>
       </c>
       <c r="R5">
-        <v>276.2707582034834</v>
+        <v>19.654570109054</v>
       </c>
       <c r="S5">
-        <v>0.070565247680239</v>
+        <v>0.0004011253474624488</v>
       </c>
       <c r="T5">
-        <v>0.070565247680239</v>
+        <v>0.000401125347462449</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>139.302119615405</v>
+        <v>0.4914656666666666</v>
       </c>
       <c r="H6">
-        <v>139.302119615405</v>
+        <v>1.474397</v>
       </c>
       <c r="I6">
-        <v>0.4575715551908895</v>
+        <v>0.001412343595284977</v>
       </c>
       <c r="J6">
-        <v>0.4575715551908895</v>
+        <v>0.001412343595284977</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.134440822805992</v>
+        <v>0.1474816666666666</v>
       </c>
       <c r="N6">
-        <v>0.134440822805992</v>
+        <v>0.442445</v>
       </c>
       <c r="O6">
-        <v>0.01045407997730011</v>
+        <v>0.009426488072486921</v>
       </c>
       <c r="P6">
-        <v>0.01045407997730011</v>
+        <v>0.009426488072486923</v>
       </c>
       <c r="Q6">
-        <v>18.72789157971377</v>
+        <v>0.07248217562944444</v>
       </c>
       <c r="R6">
-        <v>18.72789157971377</v>
+        <v>0.652339580665</v>
       </c>
       <c r="S6">
-        <v>0.004783489633303152</v>
+        <v>1.331344005520713E-05</v>
       </c>
       <c r="T6">
-        <v>0.004783489633303152</v>
+        <v>1.331344005520713E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>164.962730297514</v>
+        <v>0.02255533333333333</v>
       </c>
       <c r="H7">
-        <v>164.962730297514</v>
+        <v>0.067666</v>
       </c>
       <c r="I7">
-        <v>0.5418600467757808</v>
+        <v>6.481812003046212E-05</v>
       </c>
       <c r="J7">
-        <v>0.5418600467757808</v>
+        <v>6.481812003046213E-05</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.07031825285759</v>
+        <v>4.076492666666667</v>
       </c>
       <c r="N7">
-        <v>4.07031825285759</v>
+        <v>12.229478</v>
       </c>
       <c r="O7">
-        <v>0.3165067846233175</v>
+        <v>0.2605544836075472</v>
       </c>
       <c r="P7">
-        <v>0.3165067846233175</v>
+        <v>0.2605544836075472</v>
       </c>
       <c r="Q7">
-        <v>671.4508121711951</v>
+        <v>0.09194665092755556</v>
       </c>
       <c r="R7">
-        <v>671.4508121711951</v>
+        <v>0.827519858348</v>
       </c>
       <c r="S7">
-        <v>0.1715023811208428</v>
+        <v>1.688865179294907E-05</v>
       </c>
       <c r="T7">
-        <v>0.1715023811208428</v>
+        <v>1.688865179294908E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>164.962730297514</v>
+        <v>0.02255533333333333</v>
       </c>
       <c r="H8">
-        <v>164.962730297514</v>
+        <v>0.067666</v>
       </c>
       <c r="I8">
-        <v>0.5418600467757808</v>
+        <v>6.481812003046212E-05</v>
       </c>
       <c r="J8">
-        <v>0.5418600467757808</v>
+        <v>6.481812003046213E-05</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.94445941404811</v>
+        <v>4.088530666666666</v>
       </c>
       <c r="N8">
-        <v>3.94445941404811</v>
+        <v>12.265592</v>
       </c>
       <c r="O8">
-        <v>0.306720037270074</v>
+        <v>0.2613239084857801</v>
       </c>
       <c r="P8">
-        <v>0.306720037270074</v>
+        <v>0.2613239084857802</v>
       </c>
       <c r="Q8">
-        <v>650.6887944891085</v>
+        <v>0.09221817203022221</v>
       </c>
       <c r="R8">
-        <v>650.6887944891085</v>
+        <v>0.829963548272</v>
       </c>
       <c r="S8">
-        <v>0.1661993337422315</v>
+        <v>1.693852446706079E-05</v>
       </c>
       <c r="T8">
-        <v>0.1661993337422315</v>
+        <v>1.69385244670608E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>164.962730297514</v>
+        <v>0.02255533333333333</v>
       </c>
       <c r="H9">
-        <v>164.962730297514</v>
+        <v>0.067666</v>
       </c>
       <c r="I9">
-        <v>0.5418600467757808</v>
+        <v>6.481812003046212E-05</v>
       </c>
       <c r="J9">
-        <v>0.5418600467757808</v>
+        <v>6.481812003046213E-05</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.72766228172475</v>
+        <v>2.889419666666666</v>
       </c>
       <c r="N9">
-        <v>2.72766228172475</v>
+        <v>8.668258999999999</v>
       </c>
       <c r="O9">
-        <v>0.21210223984842</v>
+        <v>0.1846811243719048</v>
       </c>
       <c r="P9">
-        <v>0.21210223984842</v>
+        <v>0.1846811243719048</v>
       </c>
       <c r="Q9">
-        <v>449.9626173228616</v>
+        <v>0.06517182372155556</v>
       </c>
       <c r="R9">
-        <v>449.9626173228616</v>
+        <v>0.5865464134939999</v>
       </c>
       <c r="S9">
-        <v>0.1149297296055127</v>
+        <v>1.197068328689883E-05</v>
       </c>
       <c r="T9">
-        <v>0.1149297296055127</v>
+        <v>1.197068328689883E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>164.962730297514</v>
+        <v>0.02255533333333333</v>
       </c>
       <c r="H10">
-        <v>164.962730297514</v>
+        <v>0.067666</v>
       </c>
       <c r="I10">
-        <v>0.5418600467757808</v>
+        <v>6.481812003046212E-05</v>
       </c>
       <c r="J10">
-        <v>0.5418600467757808</v>
+        <v>6.481812003046213E-05</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.98324877587097</v>
+        <v>4.443527333333333</v>
       </c>
       <c r="N10">
-        <v>1.98324877587097</v>
+        <v>13.330582</v>
       </c>
       <c r="O10">
-        <v>0.1542168582808882</v>
+        <v>0.2840139954622808</v>
       </c>
       <c r="P10">
-        <v>0.1542168582808882</v>
+        <v>0.2840139954622809</v>
       </c>
       <c r="Q10">
-        <v>327.1621329268776</v>
+        <v>0.1002252401791111</v>
       </c>
       <c r="R10">
-        <v>327.1621329268776</v>
+        <v>0.902027161612</v>
       </c>
       <c r="S10">
-        <v>0.08356395404169602</v>
+        <v>1.840925324820524E-05</v>
       </c>
       <c r="T10">
-        <v>0.08356395404169602</v>
+        <v>1.840925324820525E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>164.962730297514</v>
+        <v>0.02255533333333333</v>
       </c>
       <c r="H11">
-        <v>164.962730297514</v>
+        <v>0.067666</v>
       </c>
       <c r="I11">
-        <v>0.5418600467757808</v>
+        <v>6.481812003046212E-05</v>
       </c>
       <c r="J11">
-        <v>0.5418600467757808</v>
+        <v>6.481812003046213E-05</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.134440822805992</v>
+        <v>0.1474816666666666</v>
       </c>
       <c r="N11">
-        <v>0.134440822805992</v>
+        <v>0.442445</v>
       </c>
       <c r="O11">
-        <v>0.01045407997730011</v>
+        <v>0.009426488072486921</v>
       </c>
       <c r="P11">
-        <v>0.01045407997730011</v>
+        <v>0.009426488072486923</v>
       </c>
       <c r="Q11">
-        <v>22.17772519352073</v>
+        <v>0.003326498152222222</v>
       </c>
       <c r="R11">
-        <v>22.17772519352073</v>
+        <v>0.02993848337</v>
       </c>
       <c r="S11">
-        <v>0.005664648265497593</v>
+        <v>6.110072353481767E-07</v>
       </c>
       <c r="T11">
-        <v>0.005664648265497593</v>
+        <v>6.11007235348177E-07</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.17304189897693</v>
+        <v>142.6799063333333</v>
       </c>
       <c r="H12">
-        <v>0.17304189897693</v>
+        <v>428.039719</v>
       </c>
       <c r="I12">
-        <v>0.0005683980333297276</v>
+        <v>0.410024678331027</v>
       </c>
       <c r="J12">
-        <v>0.0005683980333297276</v>
+        <v>0.4100246783310271</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.07031825285759</v>
+        <v>4.076492666666667</v>
       </c>
       <c r="N12">
-        <v>4.07031825285759</v>
+        <v>12.229478</v>
       </c>
       <c r="O12">
-        <v>0.3165067846233175</v>
+        <v>0.2605544836075472</v>
       </c>
       <c r="P12">
-        <v>0.3165067846233175</v>
+        <v>0.2605544836075472</v>
       </c>
       <c r="Q12">
-        <v>0.7043355999149374</v>
+        <v>581.6335918485202</v>
       </c>
       <c r="R12">
-        <v>0.7043355999149374</v>
+        <v>5234.702326636682</v>
       </c>
       <c r="S12">
-        <v>0.0001799018339154094</v>
+        <v>0.1068337683288914</v>
       </c>
       <c r="T12">
-        <v>0.0001799018339154094</v>
+        <v>0.1068337683288914</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.17304189897693</v>
+        <v>142.6799063333333</v>
       </c>
       <c r="H13">
-        <v>0.17304189897693</v>
+        <v>428.039719</v>
       </c>
       <c r="I13">
-        <v>0.0005683980333297276</v>
+        <v>0.410024678331027</v>
       </c>
       <c r="J13">
-        <v>0.0005683980333297276</v>
+        <v>0.4100246783310271</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.94445941404811</v>
+        <v>4.088530666666666</v>
       </c>
       <c r="N13">
-        <v>3.94445941404811</v>
+        <v>12.265592</v>
       </c>
       <c r="O13">
-        <v>0.306720037270074</v>
+        <v>0.2613239084857801</v>
       </c>
       <c r="P13">
-        <v>0.306720037270074</v>
+        <v>0.2613239084857802</v>
       </c>
       <c r="Q13">
-        <v>0.6825567474443136</v>
+        <v>583.3511725609608</v>
       </c>
       <c r="R13">
-        <v>0.6825567474443136</v>
+        <v>5250.160553048648</v>
       </c>
       <c r="S13">
-        <v>0.0001743390659671308</v>
+        <v>0.1071492515170887</v>
       </c>
       <c r="T13">
-        <v>0.0001743390659671308</v>
+        <v>0.1071492515170888</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.17304189897693</v>
+        <v>142.6799063333333</v>
       </c>
       <c r="H14">
-        <v>0.17304189897693</v>
+        <v>428.039719</v>
       </c>
       <c r="I14">
-        <v>0.0005683980333297276</v>
+        <v>0.410024678331027</v>
       </c>
       <c r="J14">
-        <v>0.0005683980333297276</v>
+        <v>0.4100246783310271</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.72766228172475</v>
+        <v>2.889419666666666</v>
       </c>
       <c r="N14">
-        <v>2.72766228172475</v>
+        <v>8.668258999999999</v>
       </c>
       <c r="O14">
-        <v>0.21210223984842</v>
+        <v>0.1846811243719048</v>
       </c>
       <c r="P14">
-        <v>0.21210223984842</v>
+        <v>0.1846811243719048</v>
       </c>
       <c r="Q14">
-        <v>0.4719998609973965</v>
+        <v>412.2621273976912</v>
       </c>
       <c r="R14">
-        <v>0.4719998609973965</v>
+        <v>3710.359146579221</v>
       </c>
       <c r="S14">
-        <v>0.0001205584959946721</v>
+        <v>0.07572381861440265</v>
       </c>
       <c r="T14">
-        <v>0.0001205584959946721</v>
+        <v>0.07572381861440267</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.17304189897693</v>
+        <v>142.6799063333333</v>
       </c>
       <c r="H15">
-        <v>0.17304189897693</v>
+        <v>428.039719</v>
       </c>
       <c r="I15">
-        <v>0.0005683980333297276</v>
+        <v>0.410024678331027</v>
       </c>
       <c r="J15">
-        <v>0.0005683980333297276</v>
+        <v>0.4100246783310271</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.98324877587097</v>
+        <v>4.443527333333333</v>
       </c>
       <c r="N15">
-        <v>1.98324877587097</v>
+        <v>13.330582</v>
       </c>
       <c r="O15">
-        <v>0.1542168582808882</v>
+        <v>0.2840139954622808</v>
       </c>
       <c r="P15">
-        <v>0.1542168582808882</v>
+        <v>0.2840139954622809</v>
       </c>
       <c r="Q15">
-        <v>0.3431851343203845</v>
+        <v>634.0020637096063</v>
       </c>
       <c r="R15">
-        <v>0.3431851343203845</v>
+        <v>5706.018573386457</v>
       </c>
       <c r="S15">
-        <v>8.765655895314614E-05</v>
+        <v>0.1164527471309315</v>
       </c>
       <c r="T15">
-        <v>8.765655895314614E-05</v>
+        <v>0.1164527471309315</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>142.6799063333333</v>
+      </c>
+      <c r="H16">
+        <v>428.039719</v>
+      </c>
+      <c r="I16">
+        <v>0.410024678331027</v>
+      </c>
+      <c r="J16">
+        <v>0.4100246783310271</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.1474816666666666</v>
+      </c>
+      <c r="N16">
+        <v>0.442445</v>
+      </c>
+      <c r="O16">
+        <v>0.009426488072486921</v>
+      </c>
+      <c r="P16">
+        <v>0.009426488072486923</v>
+      </c>
+      <c r="Q16">
+        <v>21.04267038588388</v>
+      </c>
+      <c r="R16">
+        <v>189.384033472955</v>
+      </c>
+      <c r="S16">
+        <v>0.003865092739712713</v>
+      </c>
+      <c r="T16">
+        <v>0.003865092739712714</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>204.5856933333333</v>
+      </c>
+      <c r="H17">
+        <v>613.75708</v>
+      </c>
+      <c r="I17">
+        <v>0.5879256950460487</v>
+      </c>
+      <c r="J17">
+        <v>0.5879256950460489</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>4.076492666666667</v>
+      </c>
+      <c r="N17">
+        <v>12.229478</v>
+      </c>
+      <c r="O17">
+        <v>0.2605544836075472</v>
+      </c>
+      <c r="P17">
+        <v>0.2605544836075472</v>
+      </c>
+      <c r="Q17">
+        <v>833.9920785782489</v>
+      </c>
+      <c r="R17">
+        <v>7505.92870720424</v>
+      </c>
+      <c r="S17">
+        <v>0.1531866758723315</v>
+      </c>
+      <c r="T17">
+        <v>0.1531866758723316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>204.5856933333333</v>
+      </c>
+      <c r="H18">
+        <v>613.75708</v>
+      </c>
+      <c r="I18">
+        <v>0.5879256950460487</v>
+      </c>
+      <c r="J18">
+        <v>0.5879256950460489</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>4.088530666666666</v>
+      </c>
+      <c r="N18">
+        <v>12.265592</v>
+      </c>
+      <c r="O18">
+        <v>0.2613239084857801</v>
+      </c>
+      <c r="P18">
+        <v>0.2613239084857802</v>
+      </c>
+      <c r="Q18">
+        <v>836.4548811545955</v>
+      </c>
+      <c r="R18">
+        <v>7528.093930391359</v>
+      </c>
+      <c r="S18">
+        <v>0.1536390405286523</v>
+      </c>
+      <c r="T18">
+        <v>0.1536390405286524</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>204.5856933333333</v>
+      </c>
+      <c r="H19">
+        <v>613.75708</v>
+      </c>
+      <c r="I19">
+        <v>0.5879256950460487</v>
+      </c>
+      <c r="J19">
+        <v>0.5879256950460489</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2.889419666666666</v>
+      </c>
+      <c r="N19">
+        <v>8.668258999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.1846811243719048</v>
+      </c>
+      <c r="P19">
+        <v>0.1846811243719048</v>
+      </c>
+      <c r="Q19">
+        <v>591.1339258359689</v>
+      </c>
+      <c r="R19">
+        <v>5320.205332523719</v>
+      </c>
+      <c r="S19">
+        <v>0.1085787784082379</v>
+      </c>
+      <c r="T19">
+        <v>0.1085787784082379</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>204.5856933333333</v>
+      </c>
+      <c r="H20">
+        <v>613.75708</v>
+      </c>
+      <c r="I20">
+        <v>0.5879256950460487</v>
+      </c>
+      <c r="J20">
+        <v>0.5879256950460489</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>4.443527333333333</v>
+      </c>
+      <c r="N20">
+        <v>13.330582</v>
+      </c>
+      <c r="O20">
+        <v>0.2840139954622808</v>
+      </c>
+      <c r="P20">
+        <v>0.2840139954622809</v>
+      </c>
+      <c r="Q20">
+        <v>909.0821203356177</v>
+      </c>
+      <c r="R20">
+        <v>8181.73908302056</v>
+      </c>
+      <c r="S20">
+        <v>0.1669791256849668</v>
+      </c>
+      <c r="T20">
+        <v>0.1669791256849669</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>204.5856933333333</v>
+      </c>
+      <c r="H21">
+        <v>613.75708</v>
+      </c>
+      <c r="I21">
+        <v>0.5879256950460487</v>
+      </c>
+      <c r="J21">
+        <v>0.5879256950460489</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.1474816666666666</v>
+      </c>
+      <c r="N21">
+        <v>0.442445</v>
+      </c>
+      <c r="O21">
+        <v>0.009426488072486921</v>
+      </c>
+      <c r="P21">
+        <v>0.009426488072486923</v>
+      </c>
+      <c r="Q21">
+        <v>30.17263902895555</v>
+      </c>
+      <c r="R21">
+        <v>271.5537512606</v>
+      </c>
+      <c r="S21">
+        <v>0.005542074551860162</v>
+      </c>
+      <c r="T21">
+        <v>0.005542074551860164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.1992056666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.5976170000000001</v>
+      </c>
+      <c r="I22">
+        <v>0.0005724649076086171</v>
+      </c>
+      <c r="J22">
+        <v>0.0005724649076086171</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>4.076492666666667</v>
+      </c>
+      <c r="N22">
+        <v>12.229478</v>
+      </c>
+      <c r="O22">
+        <v>0.2605544836075472</v>
+      </c>
+      <c r="P22">
+        <v>0.2605544836075472</v>
+      </c>
+      <c r="Q22">
+        <v>0.8120604393251113</v>
+      </c>
+      <c r="R22">
+        <v>7.308543953926001</v>
+      </c>
+      <c r="S22">
+        <v>0.0001491582983854055</v>
+      </c>
+      <c r="T22">
+        <v>0.0001491582983854055</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.1992056666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.5976170000000001</v>
+      </c>
+      <c r="I23">
+        <v>0.0005724649076086171</v>
+      </c>
+      <c r="J23">
+        <v>0.0005724649076086171</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>4.088530666666666</v>
+      </c>
+      <c r="N23">
+        <v>12.265592</v>
+      </c>
+      <c r="O23">
+        <v>0.2613239084857801</v>
+      </c>
+      <c r="P23">
+        <v>0.2613239084857802</v>
+      </c>
+      <c r="Q23">
+        <v>0.8144584771404445</v>
+      </c>
+      <c r="R23">
+        <v>7.330126294264001</v>
+      </c>
+      <c r="S23">
+        <v>0.0001495987671272348</v>
+      </c>
+      <c r="T23">
+        <v>0.0001495987671272349</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.17304189897693</v>
-      </c>
-      <c r="H16">
-        <v>0.17304189897693</v>
-      </c>
-      <c r="I16">
-        <v>0.0005683980333297276</v>
-      </c>
-      <c r="J16">
-        <v>0.0005683980333297276</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.134440822805992</v>
-      </c>
-      <c r="N16">
-        <v>0.134440822805992</v>
-      </c>
-      <c r="O16">
-        <v>0.01045407997730011</v>
-      </c>
-      <c r="P16">
-        <v>0.01045407997730011</v>
-      </c>
-      <c r="Q16">
-        <v>0.02326389527836982</v>
-      </c>
-      <c r="R16">
-        <v>0.02326389527836982</v>
-      </c>
-      <c r="S16">
-        <v>5.942078499369068E-06</v>
-      </c>
-      <c r="T16">
-        <v>5.942078499369068E-06</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.1992056666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.5976170000000001</v>
+      </c>
+      <c r="I24">
+        <v>0.0005724649076086171</v>
+      </c>
+      <c r="J24">
+        <v>0.0005724649076086171</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2.889419666666666</v>
+      </c>
+      <c r="N24">
+        <v>8.668258999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.1846811243719048</v>
+      </c>
+      <c r="P24">
+        <v>0.1846811243719048</v>
+      </c>
+      <c r="Q24">
+        <v>0.5755887709781111</v>
+      </c>
+      <c r="R24">
+        <v>5.180298938803</v>
+      </c>
+      <c r="S24">
+        <v>0.000105723462800618</v>
+      </c>
+      <c r="T24">
+        <v>0.000105723462800618</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.1992056666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.5976170000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.0005724649076086171</v>
+      </c>
+      <c r="J25">
+        <v>0.0005724649076086171</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>4.443527333333333</v>
+      </c>
+      <c r="N25">
+        <v>13.330582</v>
+      </c>
+      <c r="O25">
+        <v>0.2840139954622808</v>
+      </c>
+      <c r="P25">
+        <v>0.2840139954622809</v>
+      </c>
+      <c r="Q25">
+        <v>0.8851758247882223</v>
+      </c>
+      <c r="R25">
+        <v>7.966582423094001</v>
+      </c>
+      <c r="S25">
+        <v>0.0001625880456718688</v>
+      </c>
+      <c r="T25">
+        <v>0.0001625880456718688</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.1992056666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.5976170000000001</v>
+      </c>
+      <c r="I26">
+        <v>0.0005724649076086171</v>
+      </c>
+      <c r="J26">
+        <v>0.0005724649076086171</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.1474816666666666</v>
+      </c>
+      <c r="N26">
+        <v>0.442445</v>
+      </c>
+      <c r="O26">
+        <v>0.009426488072486921</v>
+      </c>
+      <c r="P26">
+        <v>0.009426488072486923</v>
+      </c>
+      <c r="Q26">
+        <v>0.02937918372944445</v>
+      </c>
+      <c r="R26">
+        <v>0.264412653565</v>
+      </c>
+      <c r="S26">
+        <v>5.396333623489957E-06</v>
+      </c>
+      <c r="T26">
+        <v>5.396333623489958E-06</v>
       </c>
     </row>
   </sheetData>
